--- a/datasets/angry_data.xlsx
+++ b/datasets/angry_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/PBL 2 Project/Project/MUSIC-RECOMMENDATION-SYSTEM/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/_My/emotion-based-music-recommendation-system/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DFCC6A2F-112A-46E1-B997-1519B7F160CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C2DE1D-D3F6-4221-8BE8-4D282DAF4B53}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DFCC6A2F-112A-46E1-B997-1519B7F160CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E354C66E-A089-4637-B016-3CFBA4569EB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -151,18 +151,6 @@
     <t>Ravan Ravan Hoon Main</t>
   </si>
   <si>
-    <t>Dancebility</t>
-  </si>
-  <si>
-    <t>acoustic</t>
-  </si>
-  <si>
-    <t>0.46 to 0.85</t>
-  </si>
-  <si>
-    <t>-11 to -4</t>
-  </si>
-  <si>
     <t>Sooryavanshi Theme</t>
   </si>
   <si>
@@ -233,18 +221,6 @@
   </si>
   <si>
     <t>Sulthan</t>
-  </si>
-  <si>
-    <t>0.56 to 1</t>
-  </si>
-  <si>
-    <t>0 to 0.6</t>
-  </si>
-  <si>
-    <t>90 to 175</t>
-  </si>
-  <si>
-    <t>0.2 to 0.75</t>
   </si>
 </sst>
 </file>
@@ -341,1438 +317,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>loudness</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>-5.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.9260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.3949999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.9690000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.9629999999999992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9.4450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.1470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.8869999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-8.8260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-5.7469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.3529999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-8.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-5.9829999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.5419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8.8469999999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-7.7939999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-5.274</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-5.4269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-9.1110000000000007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-8.5559999999999992</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-7.0279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-3.653</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.0469999999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-7.31</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5.0389999999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-6.2309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-6.6280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-7.8129999999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-7.7549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-5.33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-6.2060000000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-8.6679999999999993</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-8.5519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-9.3610000000000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-9.7940000000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-7.7140000000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-8.4830000000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-17.178000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-8.1869999999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-10.872</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-6.6310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-7.55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-8.26</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-5.99</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-5.3559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-10.169</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-15.044</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-5.7789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-13.862</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-6.923</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-6.0190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-6.2060000000000004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-10.872</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-3.7010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-9.7940000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-4.2469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-8.4830000000000005</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-8.5440000000000005</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-7.1379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-8.0410000000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-7.0279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-5.0389999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-5.0179999999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-7.7549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-4.3529999999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-5.4269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-5.6740000000000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-7.7939999999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-12.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-6.6120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-5.42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-4.2960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-8.5519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-9.1110000000000007</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-6.6280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-10.247</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-3.6880000000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-7.48</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-6.9180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-4.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-8.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-8.8469999999999995</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-9.093</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-8.2629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-4.0439999999999996</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-10.419</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-7.8339999999999996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-5.7789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-5.274</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-12.977</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-4.2960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-5.3789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-7.7549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.9930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-2.9260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-4.2469999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3FB-4513-96AF-38173E9658EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="254938591"/>
-        <c:axId val="254939839"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="254938591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254939839"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="254939839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254938591"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1E3D89-4E1A-404D-A938-BB226D9CC62B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2063,15 +607,15 @@
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="Q1" sqref="Q1:R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2108,14 +652,9 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2152,14 +691,9 @@
       <c r="M2">
         <v>102.033</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2199,19 +733,15 @@
       <c r="M3">
         <v>148.006</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>0.59399999999999997</v>
@@ -2246,19 +776,14 @@
       <c r="M4">
         <v>108.751</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0.91800000000000004</v>
@@ -2293,19 +818,14 @@
       <c r="M5">
         <v>120.035</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0.66700000000000004</v>
@@ -2340,19 +860,14 @@
       <c r="M6">
         <v>172.21700000000001</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0.47199999999999998</v>
@@ -2388,12 +903,12 @@
         <v>124.492</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0.68200000000000005</v>
@@ -2429,12 +944,12 @@
         <v>139.98500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0.59199999999999997</v>
@@ -2470,12 +985,12 @@
         <v>85.022000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>0.72899999999999998</v>
@@ -2511,7 +1026,7 @@
         <v>138.00800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2549,12 +1064,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.622</v>
@@ -2590,7 +1105,7 @@
         <v>103.01</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2631,7 +1146,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2672,12 +1187,12 @@
         <v>125.02500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>0.45200000000000001</v>
@@ -2713,7 +1228,7 @@
         <v>94.070999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2754,7 +1269,7 @@
         <v>172.05699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2795,7 +1310,7 @@
         <v>120.06699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2836,7 +1351,7 @@
         <v>170.02199999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2877,7 +1392,7 @@
         <v>101.252</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2918,7 +1433,7 @@
         <v>150.04</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2959,12 +1474,12 @@
         <v>95.031999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>0.55800000000000005</v>
@@ -3000,7 +1515,7 @@
         <v>78.256</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3041,12 +1556,12 @@
         <v>113.99</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>0.48899999999999999</v>
@@ -3082,12 +1597,12 @@
         <v>149.97800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>0.60299999999999998</v>
@@ -3123,12 +1638,12 @@
         <v>105.04600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>0.76800000000000002</v>
@@ -3164,7 +1679,7 @@
         <v>95.019000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3202,7 +1717,7 @@
         <v>178.017</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3240,12 +1755,12 @@
         <v>98.019000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>0.67800000000000005</v>
@@ -3281,7 +1796,7 @@
         <v>129.976</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3322,7 +1837,7 @@
         <v>119.992</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3360,7 +1875,7 @@
         <v>99.977999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3398,12 +1913,12 @@
         <v>104.005</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>0.65500000000000003</v>
@@ -3439,7 +1954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3480,7 +1995,7 @@
         <v>91.986999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3518,7 +2033,7 @@
         <v>104.98099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3556,12 +2071,12 @@
         <v>95.054000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>0.54800000000000004</v>
@@ -3597,7 +2112,7 @@
         <v>81.040999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3638,12 +2153,12 @@
         <v>91.995999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>0.44500000000000001</v>
@@ -3679,7 +2194,7 @@
         <v>123.98399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3720,12 +2235,12 @@
         <v>98.983999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0.17100000000000001</v>
@@ -3761,12 +2276,12 @@
         <v>167.10499999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>0.70899999999999996</v>
@@ -3802,7 +2317,7 @@
         <v>129.02199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3843,12 +2358,12 @@
         <v>124.92100000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>0.42499999999999999</v>
@@ -3884,7 +2399,7 @@
         <v>147.952</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3922,12 +2437,12 @@
         <v>110.023</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>0.69599999999999995</v>
@@ -3963,7 +2478,7 @@
         <v>129.977</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4001,12 +2516,12 @@
         <v>158.05199999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>0.39200000000000002</v>
@@ -4042,7 +2557,7 @@
         <v>150.02500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4080,12 +2595,12 @@
         <v>91.989000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>0.75700000000000001</v>
@@ -4121,7 +2636,7 @@
         <v>104.979</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4162,7 +2677,7 @@
         <v>131.99600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4200,12 +2715,12 @@
         <v>152.98400000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C53">
         <v>0.59099999999999997</v>
@@ -4241,7 +2756,7 @@
         <v>125.011</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4279,7 +2794,7 @@
         <v>93.703999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4320,7 +2835,7 @@
         <v>91.986999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4361,7 +2876,7 @@
         <v>124.92100000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4399,7 +2914,7 @@
         <v>121.996</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4440,7 +2955,7 @@
         <v>91.995999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4478,7 +2993,7 @@
         <v>93.959000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4519,7 +3034,7 @@
         <v>98.983999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4557,7 +3072,7 @@
         <v>178.017</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4598,7 +3113,7 @@
         <v>104.985</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4639,7 +3154,7 @@
         <v>124.98399999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4677,7 +3192,7 @@
         <v>97.94</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4718,7 +3233,7 @@
         <v>113.99</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4756,7 +3271,7 @@
         <v>98.019000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4797,7 +3312,7 @@
         <v>96.957999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4835,7 +3350,7 @@
         <v>104.005</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4876,7 +3391,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4917,7 +3432,7 @@
         <v>150.04</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4955,7 +3470,7 @@
         <v>105.953</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4996,7 +3511,7 @@
         <v>170.02199999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5037,7 +3552,7 @@
         <v>125.98399999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5078,7 +3593,7 @@
         <v>94.971999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5119,7 +3634,7 @@
         <v>127.998</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5160,7 +3675,7 @@
         <v>125.645</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5198,7 +3713,7 @@
         <v>95.054000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5239,7 +3754,7 @@
         <v>95.031999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5280,7 +3795,7 @@
         <v>119.992</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5321,7 +3836,7 @@
         <v>115.006</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5359,7 +3874,7 @@
         <v>139.81</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5397,7 +3912,7 @@
         <v>99.007000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5438,7 +3953,7 @@
         <v>139.994</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5479,7 +3994,7 @@
         <v>105.02</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5520,7 +4035,7 @@
         <v>125.02500000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5561,7 +4076,7 @@
         <v>120.06699999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5599,7 +4114,7 @@
         <v>133.79</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5640,7 +4155,7 @@
         <v>169.97200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5681,7 +4196,7 @@
         <v>89.977000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5722,7 +4237,7 @@
         <v>106.032</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5763,7 +4278,7 @@
         <v>125.01</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5804,7 +4319,7 @@
         <v>131.99600000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5845,7 +4360,7 @@
         <v>101.252</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5883,7 +4398,7 @@
         <v>158.03399999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5924,7 +4439,7 @@
         <v>125.645</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5965,7 +4480,7 @@
         <v>94.88</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6003,7 +4518,7 @@
         <v>104.005</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6041,7 +4556,7 @@
         <v>159.96799999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6082,7 +4597,7 @@
         <v>148.006</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6122,6 +4637,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>